--- a/biology/Médecine/Warren_Alpert_Foundation_Prize/Warren_Alpert_Foundation_Prize.xlsx
+++ b/biology/Médecine/Warren_Alpert_Foundation_Prize/Warren_Alpert_Foundation_Prize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Warren Alpert Foundation Prize (prix de la Fondation Warren Alpert) est un prix scientifique décerné chaque année à des scientifiques dont les réalisations ont conduit à la prévention, à la guérison ou au traitement de maladies ou de troubles humains, et/ou dont la recherche constitue une découverte scientifique fondamentale qui est très prometteuse de changer à terme notre compréhension ou la capacité de traiter la maladie.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix est créé en 1987 par le philanthrope et homme d'affaires Warren Alpert[1] et la Fondation Warren Alpert.
-Le prix Warren Alpert est décerné au niveau international et depuis sa création, dix lauréats ont également remporté un prix Nobel[2].
-Le prix est administré de concert avec la Harvard Medical School à Boston, au Massachusetts, et la Warren Alpert Foundation, située à Providence, à Rhode Island. Un symposium annuel est organisé à la Harvard Medical School chaque automne où les récipiendaires présentent leurs travaux. Le prix comprend 500 000 $[3], une citation et une plaque.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix est créé en 1987 par le philanthrope et homme d'affaires Warren Alpert et la Fondation Warren Alpert.
+Le prix Warren Alpert est décerné au niveau international et depuis sa création, dix lauréats ont également remporté un prix Nobel.
+Le prix est administré de concert avec la Harvard Medical School à Boston, au Massachusetts, et la Warren Alpert Foundation, située à Providence, à Rhode Island. Un symposium annuel est organisé à la Harvard Medical School chaque automne où les récipiendaires présentent leurs travaux. Le prix comprend 500 000 $, une citation et une plaque.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
